--- a/biology/Histoire de la zoologie et de la botanique/Aubin_Louis_Millin_de_Grandmaison/Aubin_Louis_Millin_de_Grandmaison.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Aubin_Louis_Millin_de_Grandmaison/Aubin_Louis_Millin_de_Grandmaison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aubin Louis Millin de Grandmaison, dit Eleuthérophile Millin né le 19 juillet 1759 à Paris et mort le 14 avril 1818[1] à Paris, est un naturaliste et bibliothécaire français, érudit dans plusieurs domaines, notamment l'archéologie et l'histoire de l'art médiéval et classique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aubin Louis Millin de Grandmaison, dit Eleuthérophile Millin né le 19 juillet 1759 à Paris et mort le 14 avril 1818 à Paris, est un naturaliste et bibliothécaire français, érudit dans plusieurs domaines, notamment l'archéologie et l'histoire de l'art médiéval et classique.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aubin Louis Millin de Grandmaison est né dans une famille d'ancienne bourgeoisie originaire du Nivernais. Elle a occupé, dès le XVIIe siècle, des charges de judicature, au grenier à sel et au bailliage[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aubin Louis Millin de Grandmaison est né dans une famille d'ancienne bourgeoisie originaire du Nivernais. Elle a occupé, dès le XVIIe siècle, des charges de judicature, au grenier à sel et au bailliage.
 Le 9 décembre 1790, Aubin Louis Millin présente à l'Assemblée constituante son travail intitulé Antiquités Nationales ou recueil de monuments, pour servir à l’Histoire générale et particulière de l’Empire François, tels que tombeaux, inscriptions, statues, vitraux, fresques, etc. ; tirés des abbaïes, monastères, châteaux et autres lieux devenus domaines nationaux. Il est le premier à parler, dans un lieu officiel, de « monument historique » à l'occasion de la démolition de la Bastille.
 Millin est emprisonné en 1793 en raison de son hostilité aux Jacobins et de ses articles dans la Chronique de Paris. Libéré après un an de prison, il vient enseigner l'archéologie à la Bibliothèque nationale, à Paris ; il y devient conservateur-professeur du département des antiquités, et, en 1799-1800, président du Conservatoire de cette institution.
-Il fonde en 1787 avec Pierre Marie Auguste Broussonet (1761-1807) et Louis-Augustin Bosc d'Antic (1759-1828) la Société linnéenne de Paris. Son livre Éléments d’Histoire naturelle (1794) fait partie du corpus des Écoles centrales. Il est directeur en 1795 du Magasin encyclopédique, ou Journal des sciences, des lettres et des arts. Successeur de l'abbé Barthélemy au Cabinet des médailles le 22 prairial an III (10 juin 1795) en qualité de conservateur-professeur, il est élu secrétaire du Conservatoire le 27 octobre 1795, puis président le 26 vendémiaire an VIII[3].
+Il fonde en 1787 avec Pierre Marie Auguste Broussonet (1761-1807) et Louis-Augustin Bosc d'Antic (1759-1828) la Société linnéenne de Paris. Son livre Éléments d’Histoire naturelle (1794) fait partie du corpus des Écoles centrales. Il est directeur en 1795 du Magasin encyclopédique, ou Journal des sciences, des lettres et des arts. Successeur de l'abbé Barthélemy au Cabinet des médailles le 22 prairial an III (10 juin 1795) en qualité de conservateur-professeur, il est élu secrétaire du Conservatoire le 27 octobre 1795, puis président le 26 vendémiaire an VIII.
 Il est également connu pour avoir écrit beaucoup d'articles sur les vases grecs. En 1806, il publie le Dictionnaire des Beaux-Arts relatant l'esthétisme européen. Il effectue deux longs voyages, le premier en 1804-1806, dans le Midi, le second en Italie, de 1811 à 1813. Il en tire un Voyage dans le Midi de la France en quatre volumes et un atlas, puis un Voyage en Savoie et Piémont publié en 1816.
 Il participe à d'autres revues scientifiques et est membre d'une infinité de sociétés savantes. Millin traduit également de nombreux récits de voyages, des ouvrages comme deux dissertations de Carl von Linné (1707-1778) (pour le compte de la Société philomathique de Paris) et comme celui de Johan Christian Fabricius (1745-1808). Il entretient une importante correspondance avec l'archéologue allemand Karl August Böttiger.
 En 1817, il fonde les Annales encyclopédiques, en reprenant le Magasin encyclopédique fondé en 1792 par Marie-François Drouhin (voir "Revue encyclopédique").
-Aubin Louis Millin de Grandmaison est mort le 14 avril 1818. Il a été inhumé au cimetière du Père-Lachaise (55e division)[4].
+Aubin Louis Millin de Grandmaison est mort le 14 avril 1818. Il a été inhumé au cimetière du Père-Lachaise (55e division).
 </t>
         </is>
       </c>
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
